--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value604.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value604.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8186720792355365</v>
+        <v>1.073684692382812</v>
       </c>
       <c r="B1">
-        <v>0.7913100902889504</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.7520935771254942</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.8922866095330756</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.235678347066714</v>
+        <v>1.15558922290802</v>
       </c>
     </row>
   </sheetData>
